--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1988141.848494645</v>
+        <v>1985793.808605216</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157199</v>
+        <v>5861169.424157196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673407</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>320.8865572837388</v>
+        <v>313.3643639515869</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>226.9736586744963</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>243.9908054238477</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>79.09547483958364</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>301.1250215338158</v>
+        <v>20.06784918479925</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057160061</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.490354374904</v>
+        <v>119.4903543749025</v>
       </c>
       <c r="T11" t="n">
         <v>205.8971077829946</v>
@@ -1464,10 +1464,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608711</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T12" t="n">
         <v>191.6916106499414</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>161.6726271679468</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.050942598247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>193.3033399882067</v>
       </c>
       <c r="T13" t="n">
-        <v>203.6325210939349</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U13" t="n">
         <v>286.2229002233179</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159967</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749027</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1704,7 +1704,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>54.84960055458068</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>78.94110568136459</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>146.5581238002446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.4903543749022</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T17" t="n">
         <v>205.8971077829946</v>
@@ -1941,7 +1941,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T18" t="n">
         <v>191.6916106499414</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>126.1907533674774</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.4154739963984</v>
@@ -2059,10 +2059,10 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>241.4390805545996</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T20" t="n">
         <v>205.8971077829946</v>
@@ -2178,7 +2178,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T21" t="n">
         <v>191.6916106499414</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>45.66724929967195</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.9793823296765538</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T22" t="n">
         <v>220.4154739963984</v>
@@ -2336,7 +2336,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I23" t="n">
-        <v>59.00713057159948</v>
+        <v>59.00713057159956</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.4903543749023</v>
+        <v>119.4903543749024</v>
       </c>
       <c r="T23" t="n">
         <v>205.8971077829946</v>
@@ -2415,7 +2415,7 @@
         <v>91.93315268608708</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02016206544157</v>
+        <v>17.02016206544161</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.6367566097489</v>
+        <v>132.636756609749</v>
       </c>
       <c r="T24" t="n">
         <v>191.6916106499414</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>35.39031448868323</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>220.4154739963984</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2229002233179</v>
+        <v>58.917848393385</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>17.25588147840172</v>
+        <v>109.7472660450987</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.23490948285954</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.4635838901593</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>30.96411613815263</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.02146927219721</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.6023821631773</v>
+        <v>132.911765518798</v>
       </c>
       <c r="C37" t="n">
-        <v>120.3266064354907</v>
+        <v>120.3266064354885</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550753</v>
+        <v>101.6952583550731</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798343208</v>
+        <v>99.51374798342988</v>
       </c>
       <c r="F37" t="n">
-        <v>98.50083335979416</v>
+        <v>98.50083335979195</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958911</v>
+        <v>119.1055935958889</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025118369</v>
+        <v>97.83480025118149</v>
       </c>
       <c r="I37" t="n">
-        <v>49.432205746701</v>
+        <v>49.43220574669881</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800691024</v>
+        <v>42.01193800690804</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683048</v>
+        <v>142.8488106683026</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130321</v>
+        <v>172.6287346130299</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424758</v>
+        <v>239.2916235424736</v>
       </c>
       <c r="V37" t="n">
-        <v>205.2174286606909</v>
+        <v>205.2174286606887</v>
       </c>
       <c r="W37" t="n">
-        <v>239.6027836734539</v>
+        <v>239.6027836734517</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407259001</v>
+        <v>178.7894407258979</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889577</v>
+        <v>170.3550553333847</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433852</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572838</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>384.396046438932</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.803581887074</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C5" t="n">
-        <v>1706.841064946662</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.575366339912</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="E5" t="n">
-        <v>962.7871137416676</v>
+        <v>864.85022162887</v>
       </c>
       <c r="F5" t="n">
-        <v>551.8012089520601</v>
+        <v>453.8643168392625</v>
       </c>
       <c r="G5" t="n">
-        <v>133.8374008502469</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>133.8374008502469</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4702,16 +4702,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6110348804735</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
         <v>211.6913543878343</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626212</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.883827626212</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>769.0955750279677</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>358.1096702383601</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.67431112977</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582608</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984364</v>
       </c>
       <c r="F11" t="n">
-        <v>873.6719381947541</v>
+        <v>873.6719381947562</v>
       </c>
       <c r="G11" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453035</v>
       </c>
       <c r="H11" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854176</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5747702342508</v>
+        <v>247.1691212138973</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.362364459017</v>
+        <v>844.9567154386631</v>
       </c>
       <c r="L11" t="n">
-        <v>1806.247362632019</v>
+        <v>1638.841713611664</v>
       </c>
       <c r="M11" t="n">
-        <v>2261.185535677455</v>
+        <v>2538.798284815004</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.308550287855</v>
+        <v>3438.685096670228</v>
       </c>
       <c r="O11" t="n">
-        <v>3658.858511106401</v>
+        <v>4243.235057488772</v>
       </c>
       <c r="P11" t="n">
-        <v>4307.848905836292</v>
+        <v>4583.100002263851</v>
       </c>
       <c r="Q11" t="n">
-        <v>4717.991904648172</v>
+        <v>4783.051160322424</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594083</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942666</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394187</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="12">
@@ -5094,61 +5094,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.0997922012563</v>
+        <v>972.0997922012565</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6467629201293</v>
+        <v>797.6467629201295</v>
       </c>
       <c r="D12" t="n">
-        <v>648.712353258878</v>
+        <v>648.7123532588782</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534227</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9403402803075</v>
+        <v>342.9403402803076</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3328932762541</v>
+        <v>206.3328932762542</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4711228862671</v>
+        <v>113.4711228862672</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3302917101809</v>
+        <v>292.1604166971853</v>
       </c>
       <c r="K12" t="n">
-        <v>628.7436071410011</v>
+        <v>491.7531474855521</v>
       </c>
       <c r="L12" t="n">
-        <v>943.4432061139604</v>
+        <v>806.4527464585108</v>
       </c>
       <c r="M12" t="n">
-        <v>1330.039662866529</v>
+        <v>1193.049203211079</v>
       </c>
       <c r="N12" t="n">
-        <v>1741.276822391427</v>
+        <v>1604.286362735975</v>
       </c>
       <c r="O12" t="n">
-        <v>2095.258686457597</v>
+        <v>1958.268226802145</v>
       </c>
       <c r="P12" t="n">
-        <v>2360.02727371982</v>
+        <v>2265.956619575953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="R12" t="n">
-        <v>2601.004726840545</v>
+        <v>2601.004726840546</v>
       </c>
       <c r="S12" t="n">
         <v>2467.028205012516</v>
       </c>
       <c r="T12" t="n">
-        <v>2273.40031546712</v>
+        <v>2273.400315467121</v>
       </c>
       <c r="U12" t="n">
         <v>2045.316393151755</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.168987489792</v>
+        <v>575.5309216940491</v>
       </c>
       <c r="C13" t="n">
-        <v>243.168987489792</v>
+        <v>412.225237686022</v>
       </c>
       <c r="D13" t="n">
-        <v>243.168987489792</v>
+        <v>412.225237686022</v>
       </c>
       <c r="E13" t="n">
-        <v>243.168987489792</v>
+        <v>412.225237686022</v>
       </c>
       <c r="F13" t="n">
-        <v>96.27903999188167</v>
+        <v>412.225237686022</v>
       </c>
       <c r="G13" t="n">
-        <v>96.27903999188167</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="H13" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J13" t="n">
-        <v>127.2068360096032</v>
+        <v>127.206836009603</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238318</v>
+        <v>307.8675422238313</v>
       </c>
       <c r="L13" t="n">
-        <v>594.5774814768326</v>
+        <v>594.5774814768317</v>
       </c>
       <c r="M13" t="n">
-        <v>907.2620358138206</v>
+        <v>907.2620358138191</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.946266754869</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214382</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862614</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576725</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="R13" t="n">
-        <v>1658.978465416879</v>
+        <v>1758.019821576722</v>
       </c>
       <c r="S13" t="n">
-        <v>1463.722566438892</v>
+        <v>1562.763922598735</v>
       </c>
       <c r="T13" t="n">
-        <v>1258.033151192494</v>
+        <v>1340.12202967308</v>
       </c>
       <c r="U13" t="n">
-        <v>968.9191105628795</v>
+        <v>1051.007989043466</v>
       </c>
       <c r="V13" t="n">
-        <v>714.2346223569926</v>
+        <v>796.3235008375792</v>
       </c>
       <c r="W13" t="n">
-        <v>424.8174523200317</v>
+        <v>796.3235008375792</v>
       </c>
       <c r="X13" t="n">
-        <v>424.8174523200317</v>
+        <v>796.3235008375792</v>
       </c>
       <c r="Y13" t="n">
-        <v>424.8174523200317</v>
+        <v>575.5309216940491</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129768</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D14" t="n">
         <v>1670.446095582607</v>
@@ -5267,61 +5267,61 @@
         <v>873.6719381947553</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1428052453026</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854167</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1691212138978</v>
+        <v>414.5747702342505</v>
       </c>
       <c r="K14" t="n">
-        <v>844.9567154386643</v>
+        <v>789.3527308993629</v>
       </c>
       <c r="L14" t="n">
-        <v>1638.841713611666</v>
+        <v>1583.237729072364</v>
       </c>
       <c r="M14" t="n">
-        <v>2093.779886657102</v>
+        <v>2483.194300275704</v>
       </c>
       <c r="N14" t="n">
-        <v>2993.666698512328</v>
+        <v>3383.081112130929</v>
       </c>
       <c r="O14" t="n">
-        <v>3798.216659330873</v>
+        <v>4187.631072949474</v>
       </c>
       <c r="P14" t="n">
-        <v>4447.207054060765</v>
+        <v>4518.040746589598</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648171</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594083</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942666</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394187</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044467</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700896</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430782</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169702</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.27415119389</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J15" t="n">
-        <v>292.1604166971856</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K15" t="n">
-        <v>491.753147485553</v>
+        <v>534.6729529971346</v>
       </c>
       <c r="L15" t="n">
-        <v>806.4527464585123</v>
+        <v>849.3725519700936</v>
       </c>
       <c r="M15" t="n">
-        <v>1193.049203211081</v>
+        <v>1235.969008722662</v>
       </c>
       <c r="N15" t="n">
-        <v>1604.286362735979</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.188032313728</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P15" t="n">
-        <v>2265.956619575951</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.004726840545</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.1726788805904</v>
+        <v>299.7211858048365</v>
       </c>
       <c r="C16" t="n">
-        <v>474.1726788805904</v>
+        <v>299.7211858048365</v>
       </c>
       <c r="D16" t="n">
-        <v>324.0560394682547</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="E16" t="n">
-        <v>324.0560394682547</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="F16" t="n">
-        <v>324.0560394682547</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="G16" t="n">
         <v>244.3175488810177</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768325</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138203</v>
+        <v>907.2620358138198</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P16" t="n">
         <v>1697.221745862616</v>
       </c>
       <c r="Q16" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R16" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="S16" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.377928651069</v>
+        <v>1535.377928651068</v>
       </c>
       <c r="U16" t="n">
-        <v>1246.263888021455</v>
+        <v>1246.263888021454</v>
       </c>
       <c r="V16" t="n">
-        <v>991.5793998155684</v>
+        <v>991.5793998155669</v>
       </c>
       <c r="W16" t="n">
-        <v>702.1622297786078</v>
+        <v>702.1622297786063</v>
       </c>
       <c r="X16" t="n">
-        <v>474.1726788805904</v>
+        <v>702.1622297786063</v>
       </c>
       <c r="Y16" t="n">
-        <v>474.1726788805904</v>
+        <v>481.3696506350763</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129767</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189356</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947551</v>
+        <v>873.6719381947546</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1428052453024</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854165</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J17" t="n">
-        <v>414.5747702342508</v>
+        <v>414.5747702342505</v>
       </c>
       <c r="K17" t="n">
-        <v>691.4584060135643</v>
+        <v>1012.362364459017</v>
       </c>
       <c r="L17" t="n">
-        <v>1485.343404186566</v>
+        <v>1806.247362632018</v>
       </c>
       <c r="M17" t="n">
-        <v>2385.299975389907</v>
+        <v>2261.185535677454</v>
       </c>
       <c r="N17" t="n">
-        <v>3285.186787245132</v>
+        <v>2919.367805962108</v>
       </c>
       <c r="O17" t="n">
-        <v>4089.736748063678</v>
+        <v>3723.917766780653</v>
       </c>
       <c r="P17" t="n">
-        <v>4420.146421703801</v>
+        <v>4372.908161510544</v>
       </c>
       <c r="Q17" t="n">
-        <v>4717.991904648172</v>
+        <v>4783.051160322423</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594083</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394186</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044466</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700895</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430781</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193889</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J18" t="n">
-        <v>292.1604166971856</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K18" t="n">
-        <v>504.6170168029269</v>
+        <v>491.7531474855526</v>
       </c>
       <c r="L18" t="n">
-        <v>819.3166157758861</v>
+        <v>806.4527464585116</v>
       </c>
       <c r="M18" t="n">
-        <v>1205.913072528455</v>
+        <v>1193.04920321108</v>
       </c>
       <c r="N18" t="n">
-        <v>1617.150232053353</v>
+        <v>1604.286362735977</v>
       </c>
       <c r="O18" t="n">
-        <v>1971.132096119523</v>
+        <v>1958.268226802147</v>
       </c>
       <c r="P18" t="n">
-        <v>2235.900683381746</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2570.948790646339</v>
+        <v>2601.004726840545</v>
       </c>
       <c r="R18" t="n">
         <v>2601.004726840545</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.3318623321243</v>
+        <v>264.1867287968856</v>
       </c>
       <c r="C19" t="n">
-        <v>246.3956794042174</v>
+        <v>264.1867287968856</v>
       </c>
       <c r="D19" t="n">
-        <v>96.27903999188167</v>
+        <v>264.1867287968856</v>
       </c>
       <c r="E19" t="n">
-        <v>96.27903999188167</v>
+        <v>264.1867287968856</v>
       </c>
       <c r="F19" t="n">
-        <v>96.27903999188167</v>
+        <v>264.1867287968856</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J19" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768325</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138204</v>
+        <v>907.2620358138199</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="S19" t="n">
-        <v>1630.554414134828</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="T19" t="n">
-        <v>1407.912521209173</v>
+        <v>1535.377928651068</v>
       </c>
       <c r="U19" t="n">
-        <v>1118.798480579559</v>
+        <v>1246.263888021454</v>
       </c>
       <c r="V19" t="n">
-        <v>864.1139923736717</v>
+        <v>1002.386028875394</v>
       </c>
       <c r="W19" t="n">
-        <v>864.1139923736717</v>
+        <v>712.9688588384331</v>
       </c>
       <c r="X19" t="n">
-        <v>636.1244414756544</v>
+        <v>484.9793079404158</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.3318623321243</v>
+        <v>264.1867287968856</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.674311129768</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.711794189357</v>
+        <v>2028.711794189358</v>
       </c>
       <c r="D20" t="n">
         <v>1670.446095582607</v>
@@ -5738,37 +5738,37 @@
         <v>1284.657842984363</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947549</v>
+        <v>873.6719381947553</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1428052453023</v>
+        <v>458.1428052453025</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854164</v>
+        <v>155.8822021854166</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J20" t="n">
-        <v>414.5747702342508</v>
+        <v>414.5747702342505</v>
       </c>
       <c r="K20" t="n">
         <v>1012.362364459017</v>
       </c>
       <c r="L20" t="n">
-        <v>1806.247362632019</v>
+        <v>1487.438622397156</v>
       </c>
       <c r="M20" t="n">
-        <v>2387.395193600494</v>
+        <v>2387.395193600496</v>
       </c>
       <c r="N20" t="n">
-        <v>2854.308550287855</v>
+        <v>2854.308550287857</v>
       </c>
       <c r="O20" t="n">
-        <v>3658.858511106401</v>
+        <v>3658.858511106402</v>
       </c>
       <c r="P20" t="n">
-        <v>4307.848905836292</v>
+        <v>4307.848905836293</v>
       </c>
       <c r="Q20" t="n">
         <v>4717.991904648172</v>
@@ -5777,25 +5777,25 @@
         <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.277795394187</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.710784044467</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.647896700896</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.879241430782</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.413483169702</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.27415119389</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J21" t="n">
-        <v>292.1604166971856</v>
+        <v>292.1604166971855</v>
       </c>
       <c r="K21" t="n">
-        <v>491.753147485553</v>
+        <v>534.6729529971346</v>
       </c>
       <c r="L21" t="n">
-        <v>806.4527464585123</v>
+        <v>849.3725519700936</v>
       </c>
       <c r="M21" t="n">
-        <v>1193.049203211081</v>
+        <v>1235.969008722662</v>
       </c>
       <c r="N21" t="n">
-        <v>1604.286362735979</v>
+        <v>1647.206168247559</v>
       </c>
       <c r="O21" t="n">
-        <v>1958.268226802149</v>
+        <v>2001.188032313729</v>
       </c>
       <c r="P21" t="n">
-        <v>2235.900683381746</v>
+        <v>2265.956619575952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.948790646339</v>
+        <v>2601.004726840545</v>
       </c>
       <c r="R21" t="n">
         <v>2601.004726840545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>292.5242140503507</v>
+        <v>97.26831507236295</v>
       </c>
       <c r="C22" t="n">
-        <v>292.5242140503507</v>
+        <v>97.26831507236295</v>
       </c>
       <c r="D22" t="n">
-        <v>142.407574638015</v>
+        <v>97.26831507236295</v>
       </c>
       <c r="E22" t="n">
-        <v>96.27903999188167</v>
+        <v>97.26831507236295</v>
       </c>
       <c r="F22" t="n">
-        <v>96.27903999188167</v>
+        <v>97.26831507236295</v>
       </c>
       <c r="G22" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J22" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096029</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238314</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768325</v>
+        <v>594.577481476832</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138204</v>
+        <v>907.2620358138198</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862616</v>
       </c>
       <c r="Q22" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R22" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="S22" t="n">
-        <v>1758.019821576724</v>
+        <v>1562.763922598737</v>
       </c>
       <c r="T22" t="n">
-        <v>1535.377928651069</v>
+        <v>1340.122029673081</v>
       </c>
       <c r="U22" t="n">
-        <v>1246.263888021455</v>
+        <v>1051.007989043467</v>
       </c>
       <c r="V22" t="n">
-        <v>991.5793998155684</v>
+        <v>796.3235008375806</v>
       </c>
       <c r="W22" t="n">
-        <v>702.1622297786079</v>
+        <v>506.90633080062</v>
       </c>
       <c r="X22" t="n">
-        <v>474.1726788805904</v>
+        <v>278.9167799026027</v>
       </c>
       <c r="Y22" t="n">
-        <v>474.1726788805904</v>
+        <v>278.9167799026027</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129768</v>
       </c>
       <c r="C23" t="n">
         <v>2028.711794189357</v>
@@ -5984,55 +5984,55 @@
         <v>155.8822021854165</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J23" t="n">
-        <v>256.6243923488466</v>
+        <v>414.5747702342505</v>
       </c>
       <c r="K23" t="n">
-        <v>854.4119865736131</v>
+        <v>789.3527308993629</v>
       </c>
       <c r="L23" t="n">
-        <v>1648.296984746615</v>
+        <v>1583.237729072364</v>
       </c>
       <c r="M23" t="n">
-        <v>2548.253555949956</v>
+        <v>2483.194300275704</v>
       </c>
       <c r="N23" t="n">
-        <v>3448.140367805181</v>
+        <v>3383.081112130929</v>
       </c>
       <c r="O23" t="n">
-        <v>4252.690328623727</v>
+        <v>4187.631072949474</v>
       </c>
       <c r="P23" t="n">
-        <v>4583.10000226385</v>
+        <v>4518.040746589598</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648171</v>
       </c>
       <c r="R23" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594083</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942666</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394187</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044467</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700896</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430782</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169702</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.27415119389</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>113.4711228862671</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3302917101809</v>
+        <v>227.7785961137199</v>
       </c>
       <c r="K24" t="n">
-        <v>628.7436071410011</v>
+        <v>427.371326902087</v>
       </c>
       <c r="L24" t="n">
-        <v>943.4432061139604</v>
+        <v>742.070925875046</v>
       </c>
       <c r="M24" t="n">
-        <v>1330.039662866529</v>
+        <v>1128.667382627615</v>
       </c>
       <c r="N24" t="n">
-        <v>1741.276822391427</v>
+        <v>1539.904542152512</v>
       </c>
       <c r="O24" t="n">
-        <v>2095.258686457597</v>
+        <v>1893.886406218682</v>
       </c>
       <c r="P24" t="n">
-        <v>2360.02727371982</v>
+        <v>2473.933134434442</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.004726840545</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.9167799026035</v>
+        <v>878.168007524175</v>
       </c>
       <c r="C25" t="n">
-        <v>278.9167799026035</v>
+        <v>709.2318245962681</v>
       </c>
       <c r="D25" t="n">
-        <v>278.9167799026035</v>
+        <v>559.1151851839323</v>
       </c>
       <c r="E25" t="n">
-        <v>278.9167799026035</v>
+        <v>559.1151851839323</v>
       </c>
       <c r="F25" t="n">
-        <v>132.026832404693</v>
+        <v>412.225237686022</v>
       </c>
       <c r="G25" t="n">
-        <v>96.27903999188167</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="H25" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I25" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238318</v>
+        <v>307.8675422238315</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768326</v>
+        <v>594.5774814768322</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138205</v>
+        <v>907.2620358138197</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.946266754871</v>
+        <v>1217.94626675487</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214383</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862617</v>
+        <v>1697.221745862615</v>
       </c>
       <c r="Q25" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="R25" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576723</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.763922598738</v>
+        <v>1562.763922598736</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.122029673083</v>
+        <v>1340.122029673081</v>
       </c>
       <c r="U25" t="n">
-        <v>1051.007989043468</v>
+        <v>1280.609051497945</v>
       </c>
       <c r="V25" t="n">
-        <v>796.3235008375814</v>
+        <v>1280.609051497945</v>
       </c>
       <c r="W25" t="n">
-        <v>506.9063308006208</v>
+        <v>1280.609051497945</v>
       </c>
       <c r="X25" t="n">
-        <v>278.9167799026035</v>
+        <v>1280.609051497945</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.9167799026035</v>
+        <v>1059.816472354415</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6209,13 +6209,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423046</v>
+        <v>673.3827746590085</v>
       </c>
       <c r="C28" t="n">
-        <v>260.9043113423046</v>
+        <v>504.4465917311016</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9043113423046</v>
+        <v>354.3299523187659</v>
       </c>
       <c r="E28" t="n">
-        <v>112.9912177599113</v>
+        <v>206.4168587363727</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570259</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590085</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>673.3827746590085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,10 +6540,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.8664332433625</v>
+        <v>578.4172407837244</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8664332433625</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>391.8664332433625</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>391.8664332433625</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>391.8664332433625</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783404</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413798</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433625</v>
+        <v>872.6551842908927</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.8664332433625</v>
+        <v>760.0657056139642</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6704,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>391.866433243363</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C34" t="n">
-        <v>391.866433243363</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>391.866433243363</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>391.866433243363</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>391.866433243363</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>224.163596618082</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.866433243363</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K35" t="n">
-        <v>722.4071781934688</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846824</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518748</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.9035048802814</v>
+        <v>788.9035048802659</v>
       </c>
       <c r="C37" t="n">
-        <v>667.3614781777654</v>
+        <v>667.3614781777522</v>
       </c>
       <c r="D37" t="n">
-        <v>564.6389949908207</v>
+        <v>564.6389949908097</v>
       </c>
       <c r="E37" t="n">
-        <v>464.1200576338185</v>
+        <v>464.1200576338098</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663612992</v>
+        <v>364.6242663612927</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614093</v>
+        <v>244.3155859614048</v>
       </c>
       <c r="H37" t="n">
-        <v>145.492555404658</v>
+        <v>145.4925554046558</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118357</v>
+        <v>187.1346794118378</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748772178</v>
+        <v>437.5728748772221</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858422197</v>
+        <v>800.583685842226</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958274</v>
+        <v>1191.191743958283</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180645</v>
+        <v>1579.051133180656</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617564</v>
+        <v>1924.831744617577</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567729</v>
+        <v>2203.890257567744</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.95156623675</v>
+        <v>2327.951566236767</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219669</v>
+        <v>2285.515265219688</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.223537271886</v>
+        <v>2141.223537271906</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.851078066803</v>
+        <v>1966.851078066826</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.142367417838</v>
+        <v>1725.142367417863</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.852035437342</v>
+        <v>1517.852035437369</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625772</v>
+        <v>1275.829021625802</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.233626953146</v>
+        <v>1095.233626953178</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.8352040350067</v>
+        <v>923.1578134851123</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4302.335344088783</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C40" t="n">
         <v>667.0286178416716</v>
@@ -7315,28 +7315,28 @@
         <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477368</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490198</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7409,46 +7409,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,31 +7588,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001584</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>127.4845029525645</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>9.550778924197857</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>43.35333890059104</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.0564249642643</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202238</v>
+        <v>15.16213830202258</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>98.88315645030224</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.265604245541</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.35333890058789</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>43.35333890058524</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202238</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>193.2009228255488</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.88315645030005</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>12.99380739128674</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>43.35333890058769</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>95.63218401018599</v>
       </c>
       <c r="M20" t="n">
-        <v>127.4845029525643</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>43.35333890058789</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.99380739128662</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.55077892419078</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>98.88315645030224</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>61.05889333690826</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.0564249642643</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15.16213830202238</v>
+        <v>15.16213830202247</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K35" t="n">
-        <v>105.1996354507095</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>104.3976710547479</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>5.574193930680991</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.451279504558</v>
+        <v>102.4512795045581</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.05094259824712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.7829529024636</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>93.76587246363168</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>87.28750623558962</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.050942598247</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S16" t="n">
         <v>193.3033399882067</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>146.5581238002446</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.050942598247</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S19" t="n">
-        <v>67.11258662072935</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10.69856276922837</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>100.7667133468972</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2286119169542</v>
+        <v>165.2492295872777</v>
       </c>
       <c r="H22" t="n">
         <v>146.5581238002446</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.050942598247</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.8382974282711</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>102.451279504558</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.050942598247</v>
+        <v>98.05094259824706</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>227.3050518299329</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>128.1651665445295</v>
+        <v>35.67378197783252</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>113.7908987761687</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>107.1210694619355</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>113.7908987761681</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.5631840798976</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.309383355622898</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.309383355570753</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873368.1650127828</v>
+        <v>873368.1650127829</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873368.1650127829</v>
+        <v>873368.165012783</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>873368.1650127828</v>
+        <v>873368.1650127829</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>873368.1650127828</v>
+        <v>873368.1650127829</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871081.4201965238</v>
+        <v>871081.4201965239</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871081.4201965239</v>
+        <v>871081.4201965238</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899941.6989030396</v>
+        <v>899941.698903041</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>532517.6878136056</v>
+        <v>532517.6878136055</v>
       </c>
       <c r="F2" t="n">
         <v>532517.6878136055</v>
       </c>
       <c r="G2" t="n">
+        <v>532517.6878136055</v>
+      </c>
+      <c r="H2" t="n">
         <v>532517.6878136054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>532517.6878136056</v>
       </c>
       <c r="I2" t="n">
         <v>532517.6878136055</v>
       </c>
       <c r="J2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="K2" t="n">
         <v>536060.4122974273</v>
       </c>
       <c r="L2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974271</v>
       </c>
       <c r="M2" t="n">
-        <v>554181.9826480306</v>
+        <v>554181.9826480304</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583919</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.194658392</v>
       </c>
       <c r="P2" t="n">
         <v>554203.1946583918</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282964</v>
+        <v>639703.3804282951</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.290423471000395e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527448</v>
+        <v>257274.6877527454</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.1097376944</v>
+        <v>169415.1097376961</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756436438707</v>
+        <v>43.93756436261356</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488293</v>
+        <v>26074.75651488307</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.756514883</v>
+        <v>26074.75651488303</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488301</v>
+        <v>26074.75651488304</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488301</v>
+        <v>26074.75651488305</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.756514883</v>
+        <v>26074.75651488304</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918991</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123699951</v>
+        <v>33587.58123700023</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940041</v>
       </c>
       <c r="F5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="G5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="H5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="I5" t="n">
-        <v>94477.49060940047</v>
+        <v>94477.49060940044</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100328.0537802289</v>
+        <v>100328.0537802291</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766907</v>
+        <v>-301972.4494766908</v>
       </c>
       <c r="C6" t="n">
-        <v>287995.4297378539</v>
+        <v>287995.4297378538</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378535</v>
+        <v>287995.4297378537</v>
       </c>
       <c r="E6" t="n">
-        <v>-227737.9397389741</v>
+        <v>-227818.2564309908</v>
       </c>
       <c r="F6" t="n">
-        <v>411965.4406893221</v>
+        <v>411885.1239973038</v>
       </c>
       <c r="G6" t="n">
-        <v>411965.440689322</v>
+        <v>411885.1239973044</v>
       </c>
       <c r="H6" t="n">
-        <v>411965.4406893222</v>
+        <v>411885.1239973042</v>
       </c>
       <c r="I6" t="n">
-        <v>411965.4406893221</v>
+        <v>411885.1239973044</v>
       </c>
       <c r="J6" t="n">
-        <v>164253.713971779</v>
+        <v>164186.5184815528</v>
       </c>
       <c r="K6" t="n">
-        <v>421528.4017245237</v>
+        <v>421461.2062342979</v>
       </c>
       <c r="L6" t="n">
-        <v>421528.4017245237</v>
+        <v>421461.2062342977</v>
       </c>
       <c r="M6" t="n">
-        <v>250851.2378931077</v>
+        <v>250851.1593301036</v>
       </c>
       <c r="N6" t="n">
-        <v>420220.9327825164</v>
+        <v>420220.9327825182</v>
       </c>
       <c r="O6" t="n">
-        <v>420264.8703468808</v>
+        <v>420264.8703468809</v>
       </c>
       <c r="P6" t="n">
         <v>420264.8703468806</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252458</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="I3" t="n">
-        <v>977.3128539252473</v>
+        <v>977.3128539252466</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1203.487999898521</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195545548384</v>
+        <v>0.05492195545326695</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.5691897081607</v>
+        <v>599.5691897081592</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.463846668051</v>
+        <v>112.4638466680517</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2007271439654</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3122034609648</v>
+        <v>665.3122034609652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439654</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439654</v>
+        <v>529.2007271439651</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>85.98948845797264</v>
+        <v>93.51168179012456</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>59.54933966209472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>169.7933645969472</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>72.83584140527761</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>96.44405126592677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>112.6591484869792</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.705712004706465e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-3.944010191971637e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466313709</v>
+        <v>46.92021466313928</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176864</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648008</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988062</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4601279832682</v>
+        <v>333.4601279832677</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261045</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781236</v>
       </c>
       <c r="M11" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539751</v>
       </c>
       <c r="N11" t="n">
-        <v>701.0427168161475</v>
+        <v>701.0427168161465</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584824</v>
+        <v>661.9747582584814</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9801408463034</v>
+        <v>564.9801408463026</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002809</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754043</v>
+        <v>246.798506775404</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134289</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113673</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141491</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197702</v>
+        <v>2.102144629197698</v>
       </c>
       <c r="H12" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040935</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597341</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962615</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525073</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808425</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892589</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105014</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951208</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509185</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305694</v>
       </c>
       <c r="R12" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619414</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408881</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880207</v>
+        <v>8.473118044880193</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630065</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504541</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719493</v>
       </c>
       <c r="I13" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270023</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143711</v>
       </c>
       <c r="K13" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584367</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851389</v>
       </c>
       <c r="M13" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169346</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167815</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955693</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888765</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427121</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892237</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876554</v>
+        <v>30.7132580487655</v>
       </c>
       <c r="T13" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883039</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.0961291331729751</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I14" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4601279832682</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N14" t="n">
-        <v>701.0427168161475</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O14" t="n">
-        <v>661.9747582584824</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9801408463034</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N15" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T15" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I16" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K16" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M16" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T16" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I17" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832682</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161475</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584824</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9801408463034</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H18" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N18" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R18" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I19" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K19" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M19" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T19" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I20" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4601279832682</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M20" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N20" t="n">
-        <v>701.0427168161475</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584824</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9801408463034</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H21" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J21" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N21" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R21" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I22" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K22" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M22" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T22" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928895895176871</v>
+        <v>3.928895895176868</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23680508648014</v>
+        <v>40.23680508648011</v>
       </c>
       <c r="I23" t="n">
         <v>151.4687589988064</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4601279832682</v>
+        <v>333.460127983268</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7702912261053</v>
+        <v>499.7702912261049</v>
       </c>
       <c r="L23" t="n">
-        <v>620.0092389781245</v>
+        <v>620.0092389781241</v>
       </c>
       <c r="M23" t="n">
-        <v>689.8797413539762</v>
+        <v>689.8797413539756</v>
       </c>
       <c r="N23" t="n">
-        <v>701.0427168161475</v>
+        <v>701.042716816147</v>
       </c>
       <c r="O23" t="n">
-        <v>661.9747582584824</v>
+        <v>661.974758258482</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9801408463034</v>
+        <v>564.980140846303</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2765566002816</v>
+        <v>424.2765566002813</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7985067754043</v>
+        <v>246.7985067754041</v>
       </c>
       <c r="S23" t="n">
-        <v>89.52971521134303</v>
+        <v>89.52971521134296</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19874178113676</v>
+        <v>17.19874178113675</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3143116716141496</v>
+        <v>0.3143116716141494</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.102144629197702</v>
+        <v>2.1021446291977</v>
       </c>
       <c r="H24" t="n">
-        <v>20.30229155040939</v>
+        <v>20.30229155040937</v>
       </c>
       <c r="I24" t="n">
-        <v>72.37647078597351</v>
+        <v>72.37647078597347</v>
       </c>
       <c r="J24" t="n">
-        <v>198.6065677962619</v>
+        <v>198.6065677962617</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4502579525079</v>
+        <v>339.4502579525076</v>
       </c>
       <c r="L24" t="n">
-        <v>456.4327625808431</v>
+        <v>456.4327625808428</v>
       </c>
       <c r="M24" t="n">
-        <v>532.6355053892597</v>
+        <v>532.6355053892594</v>
       </c>
       <c r="N24" t="n">
-        <v>546.7327823105023</v>
+        <v>546.7327823105019</v>
       </c>
       <c r="O24" t="n">
-        <v>500.1536828951216</v>
+        <v>500.1536828951212</v>
       </c>
       <c r="P24" t="n">
-        <v>401.4174248509191</v>
+        <v>401.4174248509188</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.3369179305698</v>
+        <v>268.3369179305696</v>
       </c>
       <c r="R24" t="n">
-        <v>130.5173656619416</v>
+        <v>130.5173656619415</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04641449408886</v>
+        <v>39.04641449408884</v>
       </c>
       <c r="T24" t="n">
-        <v>8.473118044880207</v>
+        <v>8.4731180448802</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382989887630068</v>
+        <v>0.1382989887630066</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762367441504544</v>
+        <v>1.762367441504543</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66904870719496</v>
+        <v>15.66904870719495</v>
       </c>
       <c r="I25" t="n">
-        <v>52.9991954227003</v>
+        <v>52.99919542270027</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5993781143713</v>
+        <v>124.5993781143712</v>
       </c>
       <c r="K25" t="n">
-        <v>204.755053658437</v>
+        <v>204.7550536584369</v>
       </c>
       <c r="L25" t="n">
-        <v>262.0159739851393</v>
+        <v>262.0159739851391</v>
       </c>
       <c r="M25" t="n">
-        <v>276.259107216935</v>
+        <v>276.2591072169348</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6902831167819</v>
+        <v>269.6902831167818</v>
       </c>
       <c r="O25" t="n">
-        <v>249.1026270955697</v>
+        <v>249.1026270955695</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1503312888768</v>
+        <v>213.1503312888766</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427122</v>
       </c>
       <c r="R25" t="n">
-        <v>79.24244877892248</v>
+        <v>79.24244877892242</v>
       </c>
       <c r="S25" t="n">
-        <v>30.71325804876554</v>
+        <v>30.71325804876552</v>
       </c>
       <c r="T25" t="n">
-        <v>7.53011543188305</v>
+        <v>7.530115431883045</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09612913317297524</v>
+        <v>0.09612913317297518</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.5108386286557</v>
+        <v>152.4142234565815</v>
       </c>
       <c r="K11" t="n">
-        <v>603.8258527522894</v>
+        <v>603.8258527522887</v>
       </c>
       <c r="L11" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585868</v>
       </c>
       <c r="M11" t="n">
-        <v>459.5335081267035</v>
+        <v>909.0470416195349</v>
       </c>
       <c r="N11" t="n">
-        <v>599.1141561721211</v>
+        <v>908.9765776315397</v>
       </c>
       <c r="O11" t="n">
-        <v>812.676728099541</v>
+        <v>812.67672809954</v>
       </c>
       <c r="P11" t="n">
-        <v>655.5458532625164</v>
+        <v>343.2979240152309</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2858573857368</v>
+        <v>201.9708667258314</v>
       </c>
       <c r="R11" t="n">
-        <v>96.92938883425464</v>
+        <v>31.21296896127183</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.76894112959516</v>
+        <v>197.8599764700037</v>
       </c>
       <c r="K12" t="n">
-        <v>466.0740559907275</v>
+        <v>201.6088189781483</v>
       </c>
       <c r="L12" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009683</v>
       </c>
       <c r="M12" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672406</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271681</v>
       </c>
       <c r="O12" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506764</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365888</v>
+        <v>310.7963563371792</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.4115688088126</v>
+        <v>338.432431580397</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976983</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4855618325541</v>
+        <v>182.4855618325538</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454555</v>
+        <v>289.605999245455</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787752</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960101</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096093</v>
+        <v>273.687755009609</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537699</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101774</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.4142234565819</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K14" t="n">
-        <v>603.8258527522894</v>
+        <v>378.5635966314266</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M14" t="n">
-        <v>459.5335081267035</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315407</v>
+        <v>908.9765776315403</v>
       </c>
       <c r="O14" t="n">
-        <v>812.676728099541</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P14" t="n">
-        <v>655.5458532625164</v>
+        <v>333.7471450910335</v>
       </c>
       <c r="Q14" t="n">
-        <v>339.2364709713731</v>
+        <v>201.9708667258318</v>
       </c>
       <c r="R14" t="n">
-        <v>31.2129689612722</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>197.859976470004</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K15" t="n">
-        <v>201.6088189781489</v>
+        <v>244.9621578787365</v>
       </c>
       <c r="L15" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M15" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O15" t="n">
-        <v>400.9107773512624</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365888</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.4324315803974</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>321.5108386286557</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6804401811247</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L17" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M17" t="n">
-        <v>909.047041619536</v>
+        <v>459.5335081267029</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9765776315407</v>
+        <v>664.830576045105</v>
       </c>
       <c r="O17" t="n">
-        <v>812.676728099541</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P17" t="n">
-        <v>333.7471450910338</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.8540231761322</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R17" t="n">
-        <v>96.92938883425464</v>
+        <v>31.21296896127203</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>197.859976470004</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K18" t="n">
-        <v>214.6026263694356</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L18" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O18" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4430174365888</v>
+        <v>310.7963563371762</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.4324315803974</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R18" t="n">
-        <v>30.35953150929844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>321.5108386286557</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K20" t="n">
-        <v>603.8258527522894</v>
+        <v>603.8258527522892</v>
       </c>
       <c r="L20" t="n">
-        <v>801.9040385585877</v>
+        <v>479.8750080183229</v>
       </c>
       <c r="M20" t="n">
-        <v>587.0180110792678</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N20" t="n">
-        <v>471.6296532195566</v>
+        <v>471.6296532195561</v>
       </c>
       <c r="O20" t="n">
-        <v>812.676728099541</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P20" t="n">
-        <v>655.5458532625164</v>
+        <v>655.5458532625162</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.2858573857368</v>
+        <v>414.2858573857364</v>
       </c>
       <c r="R20" t="n">
-        <v>96.92938883425464</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.859976470004</v>
+        <v>197.8599764700039</v>
       </c>
       <c r="K21" t="n">
-        <v>201.6088189781489</v>
+        <v>244.9621578787365</v>
       </c>
       <c r="L21" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M21" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O21" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P21" t="n">
-        <v>280.4368248278755</v>
+        <v>267.4430174365885</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803974</v>
+        <v>338.4324315803972</v>
       </c>
       <c r="R21" t="n">
-        <v>30.35953150929844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>161.9650023807727</v>
+        <v>321.5108386286554</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8258527522894</v>
+        <v>378.5635966314266</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585877</v>
+        <v>801.9040385585873</v>
       </c>
       <c r="M23" t="n">
-        <v>909.047041619536</v>
+        <v>909.0470416195354</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9765776315407</v>
+        <v>908.9765776315403</v>
       </c>
       <c r="O23" t="n">
-        <v>812.676728099541</v>
+        <v>812.6767280995406</v>
       </c>
       <c r="P23" t="n">
-        <v>333.7471450910338</v>
+        <v>333.7471450910335</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9708667258321</v>
+        <v>201.9708667258318</v>
       </c>
       <c r="R23" t="n">
-        <v>31.2129689612722</v>
+        <v>96.92938883425447</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.76894112959516</v>
+        <v>132.8278344665033</v>
       </c>
       <c r="K24" t="n">
-        <v>466.0740559907275</v>
+        <v>201.6088189781486</v>
       </c>
       <c r="L24" t="n">
-        <v>317.878382800969</v>
+        <v>317.8783828009686</v>
       </c>
       <c r="M24" t="n">
-        <v>390.5014714672414</v>
+        <v>390.5014714672411</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271691</v>
+        <v>415.3910702271686</v>
       </c>
       <c r="O24" t="n">
-        <v>357.5574384506772</v>
+        <v>357.5574384506768</v>
       </c>
       <c r="P24" t="n">
-        <v>267.4430174365888</v>
+        <v>585.9057860765257</v>
       </c>
       <c r="Q24" t="n">
-        <v>243.4115688088126</v>
+        <v>128.3551438445481</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.24019799769849</v>
+        <v>31.2401979976984</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4855618325541</v>
+        <v>182.485561832554</v>
       </c>
       <c r="L25" t="n">
-        <v>289.6059992454555</v>
+        <v>289.6059992454552</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8429841787756</v>
+        <v>315.8429841787754</v>
       </c>
       <c r="N25" t="n">
-        <v>313.8224554960105</v>
+        <v>313.8224554960103</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6877550096093</v>
+        <v>273.6877550096092</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4288905537703</v>
+        <v>210.4288905537701</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.41219769101794</v>
+        <v>61.41219769101785</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K35" t="n">
-        <v>442.39092200611</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127620331</v>
+        <v>92.49863127620551</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9678742074566</v>
+        <v>252.9678742074589</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333352</v>
+        <v>366.6775868333374</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566209</v>
+        <v>394.5535940566231</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306771</v>
+        <v>391.7771608306793</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857769</v>
+        <v>349.2733448857791</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082475</v>
+        <v>281.8772858082497</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010307</v>
+        <v>125.3144532010329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>355.1919758584674</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>790.107897498625</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
